--- a/data/tests/cluster_15.xlsx
+++ b/data/tests/cluster_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv1129c</t>
+          <t>Rv1130</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>prpR Rv1129c RVBD_1129c P425_01178</t>
+          <t>prpD Rv1130 RVBD_1130 P425_01179</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Plays a key role in regulating expression of enzymes involved in the catabolism of short chain fatty acids (SCFA) via both the glyoxylate (acetyl degradation route) and the methylcitrate cycle (propionate degradation route) (PubMed:22916289, PubMed:24705740). Required for intracellular growth in macrophages and for the assimilation of cholesterol-derived propionate (PubMed:22365605). PrpR acts as a transcriptional activator of prpDC and icl genes when propionate is the main carbon source, and as a ramB repressor (PubMed:22916289). During growth on propionate, PrpR also acts as a transcriptional repressor of dnaA, which encodes the DnaA initiator protein responsible for initiating chromosomal replication (PubMed:24705740). It is possibly involved in the regulation of genes responsible for controlling cholesterol utilization (PubMed:22365605). {ECO:0000269|PubMed:22365605, ECO:0000269|PubMed:22916289, ECO:0000269|PubMed:24705740}.</t>
+          <t>FUNCTION: Involved in the catabolism of short chain fatty acids (SCFA) via the tricarboxylic acid (TCA)(acetyl degradation route) and via the 2-methylcitrate cycle I (propionate degradation route). Catalyzes the dehydration of 2-methylcitrate (2-MC) to yield the cis isomer of 2-methyl-aconitate (PubMed:18375549, PubMed:22365605). Could also catalyze the dehydration of citrate and the hydration of cis-aconitate (By similarity). {ECO:0000250|UniProtKB:P77243, ECO:0000269|PubMed:18375549, ECO:0000269|PubMed:22365605}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv0334</t>
+          <t>Rv1743</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rmlA rfbA Rv0334</t>
+          <t>pknE Rv1743 MTCY28.05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the formation of dTDP-glucose, from dTTP and glucose 1-phosphate, as well as its pyrophosphorolysis. Involved in the biosynthesis of the dTDP-L-rhamnose which is a component of the critical linker, D-N-acetylglucosamine-L-rhamnose disaccharide, which connects the galactan region of arabinogalactan to peptidoglycan via a phosphodiester linkage. {ECO:0000269|PubMed:17784859, ECO:0000269|PubMed:9084178}.</t>
+          <t>FUNCTION: Important for survival of the bacterium in the host during infection. Promotes the survival of infected macrophages by activating multiple signaling responses and suppressing apoptosis of macrophages during nitrate stress. May contribute to the adaptation of M.tuberculosis during stress conditions by maintaining the cellular integrity. Can phosphorylate the FHA domain of Rv1747. {ECO:0000269|PubMed:15987910, ECO:0000269|PubMed:17892498, ECO:0000269|PubMed:21945589, ECO:0000269|PubMed:23108860}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv1130</t>
+          <t>Rv1653</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>prpD Rv1130 RVBD_1130 P425_01179</t>
+          <t>argJ Rv1653 MTCY06H11.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the catabolism of short chain fatty acids (SCFA) via the tricarboxylic acid (TCA)(acetyl degradation route) and via the 2-methylcitrate cycle I (propionate degradation route). Catalyzes the dehydration of 2-methylcitrate (2-MC) to yield the cis isomer of 2-methyl-aconitate (PubMed:18375549, PubMed:22365605). Could also catalyze the dehydration of citrate and the hydration of cis-aconitate (By similarity). {ECO:0000250|UniProtKB:P77243, ECO:0000269|PubMed:18375549, ECO:0000269|PubMed:22365605}.</t>
+          <t>FUNCTION: Catalyzes two activities which are involved in the cyclic version of arginine biosynthesis: the synthesis of N-acetylglutamate from glutamate and acetyl-CoA as the acetyl donor, and of ornithine by transacetylation between N(2)-acetylornithine and glutamate. {ECO:0000250}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,20 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv1653</t>
+          <t>Rv1129c</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>argJ Rv1653 MTCY06H11.18</t>
+          <t>prpR Rv1129c RVBD_1129c P425_01178</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes two activities which are involved in the cyclic version of arginine biosynthesis: the synthesis of N-acetylglutamate from glutamate and acetyl-CoA as the acetyl donor, and of ornithine by transacetylation between N(2)-acetylornithine and glutamate. {ECO:0000250}.</t>
+          <t>FUNCTION: Plays a key role in regulating expression of enzymes involved in the catabolism of short chain fatty acids (SCFA) via both the glyoxylate (acetyl degradation route) and the methylcitrate cycle (propionate degradation route) (PubMed:22916289, PubMed:24705740). Required for intracellular growth in macrophages and for the assimilation of cholesterol-derived propionate (PubMed:22365605). PrpR acts as a transcriptional activator of prpDC and icl genes when propionate is the main carbon source, and as a ramB repressor (PubMed:22916289). During growth on propionate, PrpR also acts as a transcriptional repressor of dnaA, which encodes the DnaA initiator protein responsible for initiating chromosomal replication (PubMed:24705740). It is possibly involved in the regulation of genes responsible for controlling cholesterol utilization (PubMed:22365605). {ECO:0000269|PubMed:22365605, ECO:0000269|PubMed:22916289, ECO:0000269|PubMed:24705740}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv1223</t>
+          <t>Rv0334</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -586,12 +586,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>htrA1 degP htrA Rv1223</t>
+          <t>rmlA rfbA Rv0334</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: Essential protein that may act as a regulatory protease that is conditionally activated upon appropriate environmental triggers. {ECO:0000269|PubMed:30511675}.</t>
+          <t>FUNCTION: Catalyzes the formation of dTDP-glucose, from dTTP and glucose 1-phosphate, as well as its pyrophosphorolysis. Involved in the biosynthesis of the dTDP-L-rhamnose which is a component of the critical linker, D-N-acetylglucosamine-L-rhamnose disaccharide, which connects the galactan region of arabinogalactan to peptidoglycan via a phosphodiester linkage. {ECO:0000269|PubMed:17784859, ECO:0000269|PubMed:9084178}.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -601,23 +601,705 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rv1743</t>
+          <t>Rv1223</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pknE Rv1743 MTCY28.05</t>
+          <t>htrA1 degP htrA Rv1223</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FUNCTION: Important for survival of the bacterium in the host during infection. Promotes the survival of infected macrophages by activating multiple signaling responses and suppressing apoptosis of macrophages during nitrate stress. May contribute to the adaptation of M.tuberculosis during stress conditions by maintaining the cellular integrity. Can phosphorylate the FHA domain of Rv1747. {ECO:0000269|PubMed:15987910, ECO:0000269|PubMed:17892498, ECO:0000269|PubMed:21945589, ECO:0000269|PubMed:23108860}.</t>
+          <t>FUNCTION: Essential protein that may act as a regulatory protease that is conditionally activated upon appropriate environmental triggers. {ECO:0000269|PubMed:30511675}.</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv2592c</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ruvB Rv2592c MTCY227.09</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: The RuvA-RuvB complex in the presence of ATP renatures cruciform structure in supercoiled DNA with palindromic sequence, indicating that it may promote strand exchange reactions in homologous recombination. RuvAB is a helicase that mediates the Holliday junction migration by localized denaturation and reannealing. {ECO:0000255|HAMAP-Rule:MF_00016}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv3458c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rpsD Rv3458c MTCY13E12.11c</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of the primary rRNA binding proteins, it binds directly to 16S rRNA where it nucleates assembly of the body of the 30S subunit. {ECO:0000255|HAMAP-Rule:MF_01306}.; FUNCTION: With S5 and S12 plays an important role in translational accuracy. {ECO:0000255|HAMAP-Rule:MF_01306}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv2678c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>hemE Rv2678c MTV010.02c</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the decarboxylation of four acetate groups of uroporphyrinogen-III to yield coproporphyrinogen-III. {ECO:0000255|HAMAP-Rule:MF_00218}.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv1782</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>eccB5 Rv1782</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FUNCTION: An ATPase (shown for residues 80-506) (PubMed:26396239). Part of the ESX-5 specialized secretion system, which is responsible for the secretion of EsxN and a number of PE_PGRS and PPE proteins, including PPE41. {ECO:0000269|PubMed:22340629, ECO:0000269|PubMed:22925462, ECO:0000269|PubMed:23284869}.</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv1611</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>trpC Rv1611 MTCY01B2.03</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv1650</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pheT Rv1650 MTCY06H11.15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv1029</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>kdpA Rv1029 MTCY10G2.20c</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of the high-affinity ATP-driven potassium transport (or Kdp) system, which catalyzes the hydrolysis of ATP coupled with the electrogenic transport of potassium into the cytoplasm. This subunit binds and transports the potassium across the cytoplasmic membrane. {ECO:0000255|HAMAP-Rule:MF_00275}.</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv2431c</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PE25 Rv2431c LH57_13295</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FUNCTION: The PE25/PPE41 dimer induces both a strong humoral and cellular immune response. PE25 protein alone induces low response (PubMed:18974870). The dimer induces necrosis, but not apoptosis, in mouse macrophage cells (PubMed:25379378). It also induces activation and maturation of mouse dendritic cells and drives Th2-biased immune responses (PubMed:26318856). {ECO:0000269|PubMed:18974870, ECO:0000269|PubMed:25379378, ECO:0000269|PubMed:26318856}.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv0032</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bioF2 Rv0032</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the decarboxylative condensation of pimeloyl-[acyl-carrier protein] and L-alanine to produce 8-amino-7-oxononanoate (AON), [acyl-carrier protein], and carbon dioxide. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv1904</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rv1904</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv3154</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>nuoJ Rv3154</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FUNCTION: NDH-1 shuttles electrons from NADH, via FMN and iron-sulfur (Fe-S) centers, to quinones in the respiratory chain. Couples the redox reaction to proton translocation (for every two electrons transferred, four hydrogen ions are translocated across the cytoplasmic membrane), and thus conserves the redox energy in a proton gradient. {ECO:0000256|RuleBase:RU004429}.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv0338c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rv0338c</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv1838c</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vapC13 Rv1838c MTCY1A11.05 MTCY359.35</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FUNCTION: Toxic component of a type II toxin-antitoxin (TA) system. An RNase. The cognate antitoxin is VapB13 (By similarity). {ECO:0000255|HAMAP-Rule:MF_00265}.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv2073c</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rv2073c MTCY49.12c</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv0069c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sdaA Rv0069c MTV030.12c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv2268c</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cyp128 Rv2268c MTCY339.42</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv2715</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rv2715 MTCY05A6.36</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv2543</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lppA Rv2543</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv0411c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>glnH Rv0411c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv2990c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rv2990c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv2189c</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rv2189c</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv3278c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rv3278c</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv2394</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ggtB Rv2394</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv1632c</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rv1632c</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv1371</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rv1371</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv3060c</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rv3060c</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv3906c</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rv3906c</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv2172c</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv2172c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv1807</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PPE31 Rv1807</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv3347c</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PPE55 Rv3347c</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv3228</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rv3228</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv0636</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hadB Rv0636</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv0373c</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rv0373c</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv3068c</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>pgmA Rv3068c</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>15</v>
       </c>
     </row>
